--- a/training/output/LRSADTLM/T/T1_T2.xlsx
+++ b/training/output/LRSADTLM/T/T1_T2.xlsx
@@ -447,802 +447,802 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.73</v>
+        <v>0.845</v>
       </c>
       <c r="B2" t="n">
-        <v>1.976420750617981</v>
+        <v>1.775380477905274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9125</v>
+        <v>0.9275</v>
       </c>
       <c r="B3" t="n">
-        <v>1.607120389938355</v>
+        <v>1.566036739349365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.93</v>
+        <v>0.925</v>
       </c>
       <c r="B4" t="n">
-        <v>1.541358509063721</v>
+        <v>1.495301656723022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="B5" t="n">
-        <v>1.542428464889526</v>
+        <v>1.499560751914978</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9325</v>
+        <v>0.925</v>
       </c>
       <c r="B6" t="n">
-        <v>1.489119257926941</v>
+        <v>1.460617561340332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9575</v>
+        <v>0.93</v>
       </c>
       <c r="B7" t="n">
-        <v>1.432146778106689</v>
+        <v>1.429594001770019</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9375</v>
       </c>
       <c r="B8" t="n">
-        <v>1.471975698471069</v>
+        <v>1.44848313331604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9425</v>
+        <v>0.925</v>
       </c>
       <c r="B9" t="n">
-        <v>1.470618176460266</v>
+        <v>1.439453868865967</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9575</v>
+        <v>0.9325</v>
       </c>
       <c r="B10" t="n">
-        <v>1.454684309959412</v>
+        <v>1.434799480438232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9625</v>
+        <v>0.9375</v>
       </c>
       <c r="B11" t="n">
-        <v>1.418592720031738</v>
+        <v>1.417205080986023</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.96</v>
+        <v>0.9275</v>
       </c>
       <c r="B12" t="n">
-        <v>1.414426069259644</v>
+        <v>1.421195425987244</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.96</v>
+        <v>0.9275</v>
       </c>
       <c r="B13" t="n">
-        <v>1.411649680137634</v>
+        <v>1.416167759895325</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.965</v>
+        <v>0.9275</v>
       </c>
       <c r="B14" t="n">
-        <v>1.407288293838501</v>
+        <v>1.410089550018311</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.965</v>
+        <v>0.93</v>
       </c>
       <c r="B15" t="n">
-        <v>1.407123603820801</v>
+        <v>1.410673084259033</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9625</v>
+        <v>0.93</v>
       </c>
       <c r="B16" t="n">
-        <v>1.414351615905762</v>
+        <v>1.427891802787781</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9625</v>
+        <v>0.9325</v>
       </c>
       <c r="B17" t="n">
-        <v>1.406647834777832</v>
+        <v>1.412840452194214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.945</v>
+        <v>0.9325</v>
       </c>
       <c r="B18" t="n">
-        <v>1.45019419670105</v>
+        <v>1.409112458229065</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.93</v>
+        <v>0.9375</v>
       </c>
       <c r="B19" t="n">
-        <v>1.421308708190918</v>
+        <v>1.410227203369141</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9675</v>
+        <v>0.925</v>
       </c>
       <c r="B20" t="n">
-        <v>1.416408414840698</v>
+        <v>1.41005301952362</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9475</v>
+        <v>0.915</v>
       </c>
       <c r="B21" t="n">
-        <v>1.44279983997345</v>
+        <v>1.411998500823975</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="B22" t="n">
-        <v>1.410221176147461</v>
+        <v>1.403373708724976</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9675</v>
+        <v>0.915</v>
       </c>
       <c r="B23" t="n">
-        <v>1.474456906318665</v>
+        <v>1.415498099327087</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.955</v>
+        <v>0.9225</v>
       </c>
       <c r="B24" t="n">
-        <v>1.417286782264709</v>
+        <v>1.401963777542114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.965</v>
+        <v>0.9275</v>
       </c>
       <c r="B25" t="n">
-        <v>1.456070985794067</v>
+        <v>1.413658504486084</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="B26" t="n">
-        <v>1.410299444198608</v>
+        <v>1.402186231613159</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9525</v>
+        <v>0.9225</v>
       </c>
       <c r="B27" t="n">
-        <v>1.468726840019226</v>
+        <v>1.40261538028717</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="B28" t="n">
-        <v>1.412361578941345</v>
+        <v>1.398402514457703</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9825</v>
+        <v>0.9225</v>
       </c>
       <c r="B29" t="n">
-        <v>1.430825581550598</v>
+        <v>1.404976305961609</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9475</v>
+        <v>0.925</v>
       </c>
       <c r="B30" t="n">
-        <v>1.428157229423523</v>
+        <v>1.402295093536377</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.975</v>
+        <v>0.9275</v>
       </c>
       <c r="B31" t="n">
-        <v>1.403494935035706</v>
+        <v>1.398104643821716</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.975</v>
+        <v>0.9225</v>
       </c>
       <c r="B32" t="n">
-        <v>1.406156673431396</v>
+        <v>1.396428332328796</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.975</v>
+        <v>0.925</v>
       </c>
       <c r="B33" t="n">
-        <v>1.406562938690185</v>
+        <v>1.395999584197998</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9725</v>
+        <v>0.925</v>
       </c>
       <c r="B34" t="n">
-        <v>1.439992427825928</v>
+        <v>1.397709407806397</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9825</v>
+        <v>0.9225</v>
       </c>
       <c r="B35" t="n">
-        <v>1.396693477630615</v>
+        <v>1.394810719490051</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9825</v>
+        <v>0.9225</v>
       </c>
       <c r="B36" t="n">
-        <v>1.400462584495545</v>
+        <v>1.396708979606628</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9875</v>
+        <v>0.9275</v>
       </c>
       <c r="B37" t="n">
-        <v>1.396216235160828</v>
+        <v>1.396291332244873</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9675</v>
+        <v>0.9275</v>
       </c>
       <c r="B38" t="n">
-        <v>1.442181835174561</v>
+        <v>1.402279505729675</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.985</v>
+        <v>0.9325</v>
       </c>
       <c r="B39" t="n">
-        <v>1.39769377708435</v>
+        <v>1.396319169998169</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9775</v>
+        <v>0.92</v>
       </c>
       <c r="B40" t="n">
-        <v>1.4071457862854</v>
+        <v>1.4074285364151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.965</v>
+        <v>0.91</v>
       </c>
       <c r="B41" t="n">
-        <v>1.401978769302368</v>
+        <v>1.397094030380249</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9775</v>
+        <v>0.915</v>
       </c>
       <c r="B42" t="n">
-        <v>1.391960663795471</v>
+        <v>1.39181077003479</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9825</v>
+        <v>0.915</v>
       </c>
       <c r="B43" t="n">
-        <v>1.403816618919373</v>
+        <v>1.398968915939331</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9825</v>
+        <v>0.915</v>
       </c>
       <c r="B44" t="n">
-        <v>1.406291103363037</v>
+        <v>1.398845553398132</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9625</v>
+        <v>0.9175</v>
       </c>
       <c r="B45" t="n">
-        <v>1.430921726226807</v>
+        <v>1.397918181419373</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9725</v>
+        <v>0.92</v>
       </c>
       <c r="B46" t="n">
-        <v>1.398565158843994</v>
+        <v>1.396085138320923</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.975</v>
+        <v>0.9175</v>
       </c>
       <c r="B47" t="n">
-        <v>1.395511074066162</v>
+        <v>1.395034060478211</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.975</v>
+        <v>0.915</v>
       </c>
       <c r="B48" t="n">
-        <v>1.397367563247681</v>
+        <v>1.396943550109863</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.975</v>
+        <v>0.92</v>
       </c>
       <c r="B49" t="n">
-        <v>1.395273957252502</v>
+        <v>1.395425095558166</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9725</v>
+        <v>0.9225</v>
       </c>
       <c r="B50" t="n">
-        <v>1.39458393573761</v>
+        <v>1.395215725898743</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.97</v>
+        <v>0.915</v>
       </c>
       <c r="B51" t="n">
-        <v>1.405092191696167</v>
+        <v>1.396757092475891</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="B52" t="n">
-        <v>1.410729923248291</v>
+        <v>1.39458770275116</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.97</v>
+        <v>0.9175</v>
       </c>
       <c r="B53" t="n">
-        <v>1.404134974479675</v>
+        <v>1.398084826469421</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.97</v>
+        <v>0.9175</v>
       </c>
       <c r="B54" t="n">
-        <v>1.400571904182434</v>
+        <v>1.391629185676575</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9725</v>
+        <v>0.92</v>
       </c>
       <c r="B55" t="n">
-        <v>1.405908279418945</v>
+        <v>1.391939330101013</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.96</v>
+        <v>0.9225</v>
       </c>
       <c r="B56" t="n">
-        <v>1.399612426757812</v>
+        <v>1.392589416503906</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.965</v>
+        <v>0.9225</v>
       </c>
       <c r="B57" t="n">
-        <v>1.394202308654785</v>
+        <v>1.392975044250488</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9675</v>
+        <v>0.925</v>
       </c>
       <c r="B58" t="n">
-        <v>1.392190561294556</v>
+        <v>1.391836476325989</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9675</v>
+        <v>0.925</v>
       </c>
       <c r="B59" t="n">
-        <v>1.393464188575745</v>
+        <v>1.393101425170898</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.945</v>
+        <v>0.93</v>
       </c>
       <c r="B60" t="n">
-        <v>1.4131818151474</v>
+        <v>1.394449772834778</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9775</v>
+        <v>0.93</v>
       </c>
       <c r="B61" t="n">
-        <v>1.404949088096619</v>
+        <v>1.396714220046997</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.96</v>
+        <v>0.9275</v>
       </c>
       <c r="B62" t="n">
-        <v>1.410107779502869</v>
+        <v>1.39297709941864</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9475</v>
+        <v>0.9275</v>
       </c>
       <c r="B63" t="n">
-        <v>1.395594434738159</v>
+        <v>1.392394361495972</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9575</v>
+        <v>0.925</v>
       </c>
       <c r="B64" t="n">
-        <v>1.39160078048706</v>
+        <v>1.390296845436096</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9675</v>
+        <v>0.925</v>
       </c>
       <c r="B65" t="n">
-        <v>1.397391777038574</v>
+        <v>1.392040452957153</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9725</v>
+        <v>0.925</v>
       </c>
       <c r="B66" t="n">
-        <v>1.390946664810181</v>
+        <v>1.391564745903015</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9725</v>
+        <v>0.925</v>
       </c>
       <c r="B67" t="n">
-        <v>1.395724406242371</v>
+        <v>1.391319723129272</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9675</v>
+        <v>0.925</v>
       </c>
       <c r="B68" t="n">
-        <v>1.392203869819641</v>
+        <v>1.391920094490051</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9725</v>
+        <v>0.925</v>
       </c>
       <c r="B69" t="n">
-        <v>1.390050930976868</v>
+        <v>1.389863572120666</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.975</v>
+        <v>0.925</v>
       </c>
       <c r="B70" t="n">
-        <v>1.390723595619202</v>
+        <v>1.390579962730408</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9775</v>
+        <v>0.9225</v>
       </c>
       <c r="B71" t="n">
-        <v>1.390508370399475</v>
+        <v>1.390468707084656</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.98</v>
+        <v>0.925</v>
       </c>
       <c r="B72" t="n">
-        <v>1.390138554573059</v>
+        <v>1.39042314529419</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9425</v>
+        <v>0.92</v>
       </c>
       <c r="B73" t="n">
-        <v>1.421537256240845</v>
+        <v>1.397760419845581</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.96</v>
+        <v>0.9275</v>
       </c>
       <c r="B74" t="n">
-        <v>1.418016076087952</v>
+        <v>1.391085314750671</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9525</v>
+        <v>0.93</v>
       </c>
       <c r="B75" t="n">
-        <v>1.399175171852112</v>
+        <v>1.392381620407104</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9275</v>
       </c>
       <c r="B76" t="n">
-        <v>1.397631301879883</v>
+        <v>1.38992742061615</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.965</v>
+        <v>0.9275</v>
       </c>
       <c r="B77" t="n">
-        <v>1.391259198188782</v>
+        <v>1.389491477012634</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.97</v>
+        <v>0.9275</v>
       </c>
       <c r="B78" t="n">
-        <v>1.391196284294128</v>
+        <v>1.390445785522461</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.965</v>
+        <v>0.925</v>
       </c>
       <c r="B79" t="n">
-        <v>1.392059135437012</v>
+        <v>1.390410494804382</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.97</v>
+        <v>0.9275</v>
       </c>
       <c r="B80" t="n">
-        <v>1.391784496307373</v>
+        <v>1.391377367973328</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9675</v>
+        <v>0.925</v>
       </c>
       <c r="B81" t="n">
-        <v>1.39133204460144</v>
+        <v>1.390973062515259</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9725</v>
+        <v>0.9275</v>
       </c>
       <c r="B82" t="n">
-        <v>1.393005285263061</v>
+        <v>1.390501685142517</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9725</v>
+        <v>0.9225</v>
       </c>
       <c r="B83" t="n">
-        <v>1.426316885948181</v>
+        <v>1.389975047111511</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="B84" t="n">
-        <v>1.390083284378052</v>
+        <v>1.389173669815063</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9675</v>
+        <v>0.925</v>
       </c>
       <c r="B85" t="n">
-        <v>1.407272825241089</v>
+        <v>1.390700807571411</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9625</v>
+        <v>0.925</v>
       </c>
       <c r="B86" t="n">
-        <v>1.404062051773071</v>
+        <v>1.391229648590088</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9775</v>
+        <v>0.9225</v>
       </c>
       <c r="B87" t="n">
-        <v>1.398736944198608</v>
+        <v>1.390625867843628</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.965</v>
+        <v>0.925</v>
       </c>
       <c r="B88" t="n">
-        <v>1.427303690910339</v>
+        <v>1.395218157768249</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9725</v>
+        <v>0.92</v>
       </c>
       <c r="B89" t="n">
-        <v>1.397435503005982</v>
+        <v>1.391045713424683</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.985</v>
+        <v>0.9225</v>
       </c>
       <c r="B90" t="n">
-        <v>1.390607752799988</v>
+        <v>1.389551396369934</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.985</v>
+        <v>0.92</v>
       </c>
       <c r="B91" t="n">
-        <v>1.391785202026367</v>
+        <v>1.390653004646301</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.985</v>
+        <v>0.92</v>
       </c>
       <c r="B92" t="n">
-        <v>1.390038628578186</v>
+        <v>1.389455280303955</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9875</v>
+        <v>0.92</v>
       </c>
       <c r="B93" t="n">
-        <v>1.393393378257751</v>
+        <v>1.391405529975891</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9825</v>
+        <v>0.9225</v>
       </c>
       <c r="B94" t="n">
-        <v>1.395975832939148</v>
+        <v>1.392365798950195</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9675</v>
+        <v>0.92</v>
       </c>
       <c r="B95" t="n">
-        <v>1.389735732078552</v>
+        <v>1.389103031158447</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9725</v>
+        <v>0.92</v>
       </c>
       <c r="B96" t="n">
-        <v>1.39904604434967</v>
+        <v>1.391077470779419</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9675</v>
+        <v>0.9175</v>
       </c>
       <c r="B97" t="n">
-        <v>1.398047771453858</v>
+        <v>1.390920348167419</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.975</v>
+        <v>0.9175</v>
       </c>
       <c r="B98" t="n">
-        <v>1.401772451400757</v>
+        <v>1.391881294250488</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9775</v>
+        <v>0.9175</v>
       </c>
       <c r="B99" t="n">
-        <v>1.39431191444397</v>
+        <v>1.391077408790588</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9775</v>
+        <v>0.9175</v>
       </c>
       <c r="B100" t="n">
-        <v>1.389509081840515</v>
+        <v>1.389054841995239</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9825</v>
+        <v>0.9175</v>
       </c>
       <c r="B101" t="n">
-        <v>1.392368822097778</v>
+        <v>1.389906883239746</v>
       </c>
     </row>
   </sheetData>

--- a/training/output/LRSADTLM/T/T1_T2.xlsx
+++ b/training/output/LRSADTLM/T/T1_T2.xlsx
@@ -447,802 +447,802 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.845</v>
+        <v>0.9</v>
       </c>
       <c r="B2" t="n">
-        <v>1.775380477905274</v>
+        <v>1.796822786331177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9275</v>
+        <v>0.9625</v>
       </c>
       <c r="B3" t="n">
-        <v>1.566036739349365</v>
+        <v>1.58005024433136</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="B4" t="n">
-        <v>1.495301656723022</v>
+        <v>1.504198994636536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="B5" t="n">
-        <v>1.499560751914978</v>
+        <v>1.512048573493957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.925</v>
+        <v>0.9675</v>
       </c>
       <c r="B6" t="n">
-        <v>1.460617561340332</v>
+        <v>1.468439121246338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="B7" t="n">
-        <v>1.429594001770019</v>
+        <v>1.431835579872131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9375</v>
+        <v>0.9775</v>
       </c>
       <c r="B8" t="n">
-        <v>1.44848313331604</v>
+        <v>1.446532292366028</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.925</v>
+        <v>0.9625</v>
       </c>
       <c r="B9" t="n">
-        <v>1.439453868865967</v>
+        <v>1.446258244514465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9325</v>
+        <v>0.96</v>
       </c>
       <c r="B10" t="n">
-        <v>1.434799480438232</v>
+        <v>1.437500567436218</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9375</v>
+        <v>0.975</v>
       </c>
       <c r="B11" t="n">
-        <v>1.417205080986023</v>
+        <v>1.417649173736572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9275</v>
+        <v>0.975</v>
       </c>
       <c r="B12" t="n">
-        <v>1.421195425987244</v>
+        <v>1.420567140579224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9275</v>
+        <v>0.9675</v>
       </c>
       <c r="B13" t="n">
-        <v>1.416167759895325</v>
+        <v>1.415313730239868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9275</v>
+        <v>0.9675</v>
       </c>
       <c r="B14" t="n">
-        <v>1.410089550018311</v>
+        <v>1.410015683174133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.93</v>
+        <v>0.9675</v>
       </c>
       <c r="B15" t="n">
-        <v>1.410673084259033</v>
+        <v>1.414646229743957</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.93</v>
+        <v>0.9675</v>
       </c>
       <c r="B16" t="n">
-        <v>1.427891802787781</v>
+        <v>1.432491455078125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9325</v>
+        <v>0.9625</v>
       </c>
       <c r="B17" t="n">
-        <v>1.412840452194214</v>
+        <v>1.411346650123596</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9325</v>
+        <v>0.9625</v>
       </c>
       <c r="B18" t="n">
-        <v>1.409112458229065</v>
+        <v>1.409860858917236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9375</v>
+        <v>0.9725</v>
       </c>
       <c r="B19" t="n">
-        <v>1.410227203369141</v>
+        <v>1.41075183391571</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.925</v>
+        <v>0.9625</v>
       </c>
       <c r="B20" t="n">
-        <v>1.41005301952362</v>
+        <v>1.40726824760437</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.915</v>
+        <v>0.96</v>
       </c>
       <c r="B21" t="n">
-        <v>1.411998500823975</v>
+        <v>1.411661105155945</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.91</v>
+        <v>0.9625</v>
       </c>
       <c r="B22" t="n">
-        <v>1.403373708724976</v>
+        <v>1.403014454841614</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.915</v>
+        <v>0.9725</v>
       </c>
       <c r="B23" t="n">
-        <v>1.415498099327087</v>
+        <v>1.413800444602966</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9225</v>
+        <v>0.9725</v>
       </c>
       <c r="B24" t="n">
-        <v>1.401963777542114</v>
+        <v>1.40201982498169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9275</v>
+        <v>0.9625</v>
       </c>
       <c r="B25" t="n">
-        <v>1.413658504486084</v>
+        <v>1.41419291973114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.925</v>
+        <v>0.9675</v>
       </c>
       <c r="B26" t="n">
-        <v>1.402186231613159</v>
+        <v>1.402472867965698</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9225</v>
+        <v>0.965</v>
       </c>
       <c r="B27" t="n">
-        <v>1.40261538028717</v>
+        <v>1.404506196975708</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.92</v>
+        <v>0.9675</v>
       </c>
       <c r="B28" t="n">
-        <v>1.398402514457703</v>
+        <v>1.399891247749329</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9225</v>
+        <v>0.97</v>
       </c>
       <c r="B29" t="n">
-        <v>1.404976305961609</v>
+        <v>1.40555223941803</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.925</v>
+        <v>0.9725</v>
       </c>
       <c r="B30" t="n">
-        <v>1.402295093536377</v>
+        <v>1.402950959205628</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9275</v>
+        <v>0.9725</v>
       </c>
       <c r="B31" t="n">
-        <v>1.398104643821716</v>
+        <v>1.396717944145203</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9225</v>
+        <v>0.9725</v>
       </c>
       <c r="B32" t="n">
-        <v>1.396428332328796</v>
+        <v>1.396571307182312</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.925</v>
+        <v>0.9725</v>
       </c>
       <c r="B33" t="n">
-        <v>1.395999584197998</v>
+        <v>1.396113991737366</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.925</v>
+        <v>0.9725</v>
       </c>
       <c r="B34" t="n">
-        <v>1.397709407806397</v>
+        <v>1.398715863227844</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9225</v>
+        <v>0.97</v>
       </c>
       <c r="B35" t="n">
-        <v>1.394810719490051</v>
+        <v>1.394815211296081</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9225</v>
+        <v>0.97</v>
       </c>
       <c r="B36" t="n">
-        <v>1.396708979606628</v>
+        <v>1.397103061676025</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9275</v>
+        <v>0.97</v>
       </c>
       <c r="B37" t="n">
-        <v>1.396291332244873</v>
+        <v>1.395887627601623</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9275</v>
+        <v>0.97</v>
       </c>
       <c r="B38" t="n">
-        <v>1.402279505729675</v>
+        <v>1.40843334197998</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9325</v>
+        <v>0.97</v>
       </c>
       <c r="B39" t="n">
-        <v>1.396319169998169</v>
+        <v>1.395506658554077</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.92</v>
+        <v>0.9725</v>
       </c>
       <c r="B40" t="n">
-        <v>1.4074285364151</v>
+        <v>1.407063694000244</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.91</v>
+        <v>0.9425</v>
       </c>
       <c r="B41" t="n">
-        <v>1.397094030380249</v>
+        <v>1.401576504707337</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.915</v>
+        <v>0.9475</v>
       </c>
       <c r="B42" t="n">
-        <v>1.39181077003479</v>
+        <v>1.392197971343994</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.915</v>
+        <v>0.955</v>
       </c>
       <c r="B43" t="n">
-        <v>1.398968915939331</v>
+        <v>1.399182238578796</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.915</v>
+        <v>0.9625</v>
       </c>
       <c r="B44" t="n">
-        <v>1.398845553398132</v>
+        <v>1.398661394119263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9175</v>
+        <v>0.955</v>
       </c>
       <c r="B45" t="n">
-        <v>1.397918181419373</v>
+        <v>1.399474806785584</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.92</v>
+        <v>0.9575</v>
       </c>
       <c r="B46" t="n">
-        <v>1.396085138320923</v>
+        <v>1.396029887199402</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9175</v>
+        <v>0.9625</v>
       </c>
       <c r="B47" t="n">
-        <v>1.395034060478211</v>
+        <v>1.394990429878235</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.915</v>
+        <v>0.96</v>
       </c>
       <c r="B48" t="n">
-        <v>1.396943550109863</v>
+        <v>1.396892747879028</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="B49" t="n">
-        <v>1.395425095558166</v>
+        <v>1.394678821563721</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9225</v>
+        <v>0.9625</v>
       </c>
       <c r="B50" t="n">
-        <v>1.395215725898743</v>
+        <v>1.394594416618347</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.915</v>
+        <v>0.9675</v>
       </c>
       <c r="B51" t="n">
-        <v>1.396757092475891</v>
+        <v>1.397040362358093</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.92</v>
+        <v>0.985</v>
       </c>
       <c r="B52" t="n">
-        <v>1.39458770275116</v>
+        <v>1.396367692947388</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9175</v>
+        <v>0.98</v>
       </c>
       <c r="B53" t="n">
-        <v>1.398084826469421</v>
+        <v>1.397884368896484</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9175</v>
+        <v>0.98</v>
       </c>
       <c r="B54" t="n">
-        <v>1.391629185676575</v>
+        <v>1.391917915344238</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="B55" t="n">
-        <v>1.391939330101013</v>
+        <v>1.392370519638062</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9225</v>
+        <v>0.98</v>
       </c>
       <c r="B56" t="n">
-        <v>1.392589416503906</v>
+        <v>1.393135442733765</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9225</v>
+        <v>0.98</v>
       </c>
       <c r="B57" t="n">
-        <v>1.392975044250488</v>
+        <v>1.392970247268677</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.925</v>
+        <v>0.98</v>
       </c>
       <c r="B58" t="n">
-        <v>1.391836476325989</v>
+        <v>1.391936435699463</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.925</v>
+        <v>0.98</v>
       </c>
       <c r="B59" t="n">
-        <v>1.393101425170898</v>
+        <v>1.393016581535339</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.93</v>
+        <v>0.9825</v>
       </c>
       <c r="B60" t="n">
-        <v>1.394449772834778</v>
+        <v>1.394082126617432</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="B61" t="n">
-        <v>1.396714220046997</v>
+        <v>1.397548427581787</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9275</v>
+        <v>0.975</v>
       </c>
       <c r="B62" t="n">
-        <v>1.39297709941864</v>
+        <v>1.392475433349609</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9275</v>
+        <v>0.9725</v>
       </c>
       <c r="B63" t="n">
-        <v>1.392394361495972</v>
+        <v>1.392424349784851</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.925</v>
+        <v>0.97</v>
       </c>
       <c r="B64" t="n">
-        <v>1.390296845436096</v>
+        <v>1.390227618217468</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.925</v>
+        <v>0.9675</v>
       </c>
       <c r="B65" t="n">
-        <v>1.392040452957153</v>
+        <v>1.392425847053528</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.925</v>
+        <v>0.9675</v>
       </c>
       <c r="B66" t="n">
-        <v>1.391564745903015</v>
+        <v>1.390780591964722</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.925</v>
+        <v>0.97</v>
       </c>
       <c r="B67" t="n">
-        <v>1.391319723129272</v>
+        <v>1.391238770484924</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.925</v>
+        <v>0.97</v>
       </c>
       <c r="B68" t="n">
-        <v>1.391920094490051</v>
+        <v>1.391495289802551</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.925</v>
+        <v>0.97</v>
       </c>
       <c r="B69" t="n">
-        <v>1.389863572120666</v>
+        <v>1.38976583480835</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.925</v>
+        <v>0.97</v>
       </c>
       <c r="B70" t="n">
-        <v>1.390579962730408</v>
+        <v>1.390896563529968</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9225</v>
+        <v>0.9725</v>
       </c>
       <c r="B71" t="n">
-        <v>1.390468707084656</v>
+        <v>1.390299777984619</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.925</v>
+        <v>0.9725</v>
       </c>
       <c r="B72" t="n">
-        <v>1.39042314529419</v>
+        <v>1.390419435501099</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="B73" t="n">
-        <v>1.397760419845581</v>
+        <v>1.398369598388672</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9275</v>
+        <v>0.9725</v>
       </c>
       <c r="B74" t="n">
-        <v>1.391085314750671</v>
+        <v>1.391010737419129</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="B75" t="n">
-        <v>1.392381620407104</v>
+        <v>1.392134866714478</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9275</v>
+        <v>0.97</v>
       </c>
       <c r="B76" t="n">
-        <v>1.38992742061615</v>
+        <v>1.390402479171753</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9275</v>
+        <v>0.97</v>
       </c>
       <c r="B77" t="n">
-        <v>1.389491477012634</v>
+        <v>1.389386200904846</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9275</v>
+        <v>0.97</v>
       </c>
       <c r="B78" t="n">
-        <v>1.390445785522461</v>
+        <v>1.390275473594666</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.925</v>
+        <v>0.97</v>
       </c>
       <c r="B79" t="n">
-        <v>1.390410494804382</v>
+        <v>1.390425701141357</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9275</v>
+        <v>0.97</v>
       </c>
       <c r="B80" t="n">
-        <v>1.391377367973328</v>
+        <v>1.391294322013855</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.925</v>
+        <v>0.97</v>
       </c>
       <c r="B81" t="n">
-        <v>1.390973062515259</v>
+        <v>1.390804305076599</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9275</v>
+        <v>0.97</v>
       </c>
       <c r="B82" t="n">
-        <v>1.390501685142517</v>
+        <v>1.390417413711548</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9225</v>
+        <v>0.97</v>
       </c>
       <c r="B83" t="n">
-        <v>1.389975047111511</v>
+        <v>1.389951992034912</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.925</v>
+        <v>0.97</v>
       </c>
       <c r="B84" t="n">
-        <v>1.389173669815063</v>
+        <v>1.389197416305542</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.925</v>
+        <v>0.97</v>
       </c>
       <c r="B85" t="n">
-        <v>1.390700807571411</v>
+        <v>1.390636081695557</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.925</v>
+        <v>0.9725</v>
       </c>
       <c r="B86" t="n">
-        <v>1.391229648590088</v>
+        <v>1.391554636955261</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9225</v>
+        <v>0.97</v>
       </c>
       <c r="B87" t="n">
-        <v>1.390625867843628</v>
+        <v>1.390725417137146</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.925</v>
+        <v>0.9675</v>
       </c>
       <c r="B88" t="n">
-        <v>1.395218157768249</v>
+        <v>1.397015504837036</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.92</v>
+        <v>0.9675</v>
       </c>
       <c r="B89" t="n">
-        <v>1.391045713424683</v>
+        <v>1.390741934776306</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9225</v>
+        <v>0.9625</v>
       </c>
       <c r="B90" t="n">
-        <v>1.389551396369934</v>
+        <v>1.389408602714538</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.92</v>
+        <v>0.9625</v>
       </c>
       <c r="B91" t="n">
-        <v>1.390653004646301</v>
+        <v>1.391020345687866</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.92</v>
+        <v>0.9625</v>
       </c>
       <c r="B92" t="n">
-        <v>1.389455280303955</v>
+        <v>1.389453210830689</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.92</v>
+        <v>0.965</v>
       </c>
       <c r="B93" t="n">
-        <v>1.391405529975891</v>
+        <v>1.390626177787781</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9225</v>
+        <v>0.965</v>
       </c>
       <c r="B94" t="n">
-        <v>1.392365798950195</v>
+        <v>1.391049842834473</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.92</v>
+        <v>0.9625</v>
       </c>
       <c r="B95" t="n">
-        <v>1.389103031158447</v>
+        <v>1.38915087223053</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.92</v>
+        <v>0.9625</v>
       </c>
       <c r="B96" t="n">
-        <v>1.391077470779419</v>
+        <v>1.391068611145019</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9175</v>
+        <v>0.97</v>
       </c>
       <c r="B97" t="n">
-        <v>1.390920348167419</v>
+        <v>1.392307662963867</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9175</v>
+        <v>0.9725</v>
       </c>
       <c r="B98" t="n">
-        <v>1.391881294250488</v>
+        <v>1.392235307693481</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9175</v>
+        <v>0.975</v>
       </c>
       <c r="B99" t="n">
-        <v>1.391077408790588</v>
+        <v>1.392066874504089</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9175</v>
+        <v>0.975</v>
       </c>
       <c r="B100" t="n">
-        <v>1.389054841995239</v>
+        <v>1.388957371711731</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9175</v>
+        <v>0.975</v>
       </c>
       <c r="B101" t="n">
-        <v>1.389906883239746</v>
+        <v>1.389917721748352</v>
       </c>
     </row>
   </sheetData>
